--- a/results/[7_low_gas_demand]_#_co2_price.xlsx
+++ b/results/[7_low_gas_demand]_#_co2_price.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>262.5</v>
+        <v>71.25</v>
       </c>
     </row>
   </sheetData>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>287.5</v>
+        <v>243.75</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +540,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>337.5</v>
+        <v>443.75</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +571,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>362.5</v>
+        <v>443.75</v>
       </c>
     </row>
   </sheetData>
@@ -602,7 +602,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>385</v>
+        <v>443.75</v>
       </c>
     </row>
   </sheetData>
